--- a/Solution/2. Fitwear.xlsx
+++ b/Solution/2. Fitwear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internshala course\Projects\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatin\Documents\GitHub\Fitness-Data-Analysis-Using-Excel\Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32B1236-0098-40EF-B580-4812D8A9F461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA146648-7220-4049-8449-70ACCE649BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="3330" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -207,12 +207,6 @@
   <si>
     <t>GETTING INTO FITNESS</t>
   </si>
-  <si>
-    <t>How I solved the Task</t>
-  </si>
-  <si>
-    <t>First, I imported the Daily Activity data using Power Query and cleaned it by removing all columns except id, date, veryactivemiuntes and fairlyactiveminutes. Next, I created a pivot table to get the average of both Active minutes and count of days. Then, I utilized the formula (=FILTER(dailyActivity_merged!F2:I34,(dailyActivity_merged!G2:G34&gt;20)*(dailyActivity_merged!H2:H34&gt;=30)+(dailyActivity_merged!I2:I34&gt;=60))) to find potential customers according to criteria given in case study. Then, I separated the IDs for both criteria and created charts for visualisation.</t>
-  </si>
 </sst>
 </file>
 
@@ -233,12 +227,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial Black"/>
@@ -247,13 +235,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -272,6 +253,21 @@
       <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -300,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -352,106 +348,56 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,7 +623,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>main!$D$44</c:f>
+              <c:f>main!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -727,7 +673,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>main!$B$51:$B$53</c:f>
+              <c:f>main!$B$28:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -745,7 +691,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$D$51:$D$53</c:f>
+              <c:f>main!$D$28:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -772,7 +718,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>main!$E$51:$E$53</c:f>
+              <c:f>main!$E$28:$E$30</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -828,7 +774,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>main!$B$51:$B$53</c:f>
+              <c:f>main!$B$28:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -846,7 +792,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$E$51:$E$53</c:f>
+              <c:f>main!$E$28:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1293,7 +1239,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>main!$G$54:$G$55</c:f>
+              <c:f>main!$G$31:$G$32</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1307,7 +1253,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>main!$H$54:$H$55</c:f>
+              <c:f>main!$H$31:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2507,16 +2453,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>519951</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>144235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>183776</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2543,16 +2489,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1773892</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>263501</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>123823</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>176894</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9021,7 +8967,7 @@
   <dimension ref="B3:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9035,370 +8981,334 @@
     <col min="8" max="8" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>1503960366</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>2022484408</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>5577150313</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="C6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>7007744171</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>7086361926</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>8053475328</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>8378563200</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>8877689391</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>3977333714</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="44" spans="2:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="21" spans="2:8" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="18"/>
-      <c r="G44" s="4" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="16" cm="1">
-        <f t="array" ref="B45:E53">_xlfn._xlws.FILTER(dailyActivity_merged!F2:I34,(dailyActivity_merged!G2:G34&gt;20)*(dailyActivity_merged!H2:H34&gt;=30)+(dailyActivity_merged!I2:I34&gt;=60))</f>
+    <row r="22" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" cm="1">
+        <f t="array" ref="B22:E30">_xlfn._xlws.FILTER(dailyActivity_merged!F2:I34,(dailyActivity_merged!G2:G34&gt;20)*(dailyActivity_merged!H2:H34&gt;=30)+(dailyActivity_merged!I2:I34&gt;=60))</f>
         <v>1503960366</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C22" s="14">
         <v>31</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D22" s="15">
         <v>38.70967741935484</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E22" s="15">
         <v>19.161290322580644</v>
       </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="5" cm="1">
-        <f t="array" ref="G45:G52">_xlfn._xlws.FILTER(B45:B53,D45:D53&gt;=30)</f>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14" cm="1">
+        <f t="array" ref="G22:G29">_xlfn._xlws.FILTER(B22:B30,D22:D30&gt;=30)</f>
         <v>1503960366</v>
       </c>
-      <c r="H45" s="5" cm="1">
-        <f t="array" ref="H45">_xlfn._xlws.FILTER(B45:B53,E45:E53&gt;=60)</f>
+      <c r="H22" s="14" cm="1">
+        <f t="array" ref="H22">_xlfn._xlws.FILTER(B22:B30,E22:E30&gt;=60)</f>
         <v>3977333714</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="16">
+    <row r="23" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B23" s="14">
         <v>2022484408</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C23" s="14">
         <v>31</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D23" s="15">
         <v>36.29032258064516</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E23" s="15">
         <v>19.35483870967742</v>
       </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="5">
+      <c r="F23" s="13"/>
+      <c r="G23" s="14">
         <v>2022484408</v>
       </c>
-      <c r="H46" s="18"/>
-    </row>
-    <row r="47" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="16">
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B24" s="14">
         <v>3977333714</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C24" s="14">
         <v>30</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D24" s="15">
         <v>18.899999999999999</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E24" s="15">
         <v>61.266666666666666</v>
       </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="5">
+      <c r="F24" s="13"/>
+      <c r="G24" s="14">
         <v>5577150313</v>
       </c>
-      <c r="H47" s="18"/>
-    </row>
-    <row r="48" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="16">
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B25" s="14">
         <v>5577150313</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C25" s="14">
         <v>30</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D25" s="15">
         <v>87.333333333333329</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E25" s="15">
         <v>29.833333333333332</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="5">
+      <c r="F25" s="13"/>
+      <c r="G25" s="14">
         <v>7007744171</v>
       </c>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="16">
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B26" s="14">
         <v>7007744171</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C26" s="14">
         <v>26</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D26" s="15">
         <v>31.03846153846154</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E26" s="15">
         <v>16.26923076923077</v>
       </c>
-      <c r="F49" s="18"/>
-      <c r="G49" s="5">
+      <c r="F26" s="13"/>
+      <c r="G26" s="14">
         <v>7086361926</v>
       </c>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="16">
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B27" s="14">
         <v>7086361926</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C27" s="14">
         <v>31</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D27" s="15">
         <v>42.58064516129032</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E27" s="15">
         <v>25.35483870967742</v>
       </c>
-      <c r="F50" s="18"/>
-      <c r="G50" s="5">
+      <c r="F27" s="13"/>
+      <c r="G27" s="14">
         <v>8053475328</v>
       </c>
-      <c r="H50" s="18"/>
-    </row>
-    <row r="51" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="16">
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B28" s="14">
         <v>8053475328</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C28" s="14">
         <v>31</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D28" s="15">
         <v>85.161290322580641</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E28" s="15">
         <v>9.5806451612903221</v>
       </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="5">
+      <c r="F28" s="13"/>
+      <c r="G28" s="14">
         <v>8378563200</v>
       </c>
-      <c r="H51" s="18"/>
-    </row>
-    <row r="52" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="16">
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B29" s="14">
         <v>8378563200</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C29" s="14">
         <v>31</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D29" s="15">
         <v>58.677419354838712</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E29" s="15">
         <v>10.258064516129032</v>
       </c>
-      <c r="F52" s="18"/>
-      <c r="G52" s="5">
+      <c r="F29" s="13"/>
+      <c r="G29" s="14">
         <v>8877689391</v>
       </c>
-      <c r="H52" s="18"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="16">
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B30" s="14">
         <v>8877689391</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C30" s="14">
         <v>31</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D30" s="15">
         <v>66.064516129032256</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E30" s="15">
         <v>9.935483870967742</v>
       </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-    </row>
-    <row r="54" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="14"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="6" t="s">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="2:8" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="16"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H54" s="7">
-        <f>COUNT(_xlfn.ANCHORARRAY(G45))</f>
+      <c r="H31" s="17">
+        <f>COUNT(_xlfn.ANCHORARRAY(G22))</f>
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="14"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="6" t="s">
+    <row r="32" spans="2:8" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H55" s="7">
-        <f>COUNT(H45)</f>
+      <c r="H32" s="17">
+        <f>COUNT(H22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="6:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="I67" s="8"/>
+      <c r="I67" s="5"/>
     </row>
     <row r="68" spans="6:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D4:G9"/>
-    <mergeCell ref="D3:G3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -9412,7 +9322,7 @@
   <dimension ref="A1:I941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
